--- a/Assets/StreamingAssets/SaveData.xlsx
+++ b/Assets/StreamingAssets/SaveData.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Stats" sheetId="1" r:id="rId1"/>
-    <sheet name="StoredElements" sheetId="2" r:id="rId2"/>
+    <sheet name="Main" sheetId="3" r:id="rId1"/>
+    <sheet name="0" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,6 +30,26 @@
   </si>
   <si>
     <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaveData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,10 +407,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -423,17 +495,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>